--- a/data/auffrischen_kw_kv.xlsx
+++ b/data/auffrischen_kw_kv.xlsx
@@ -524,61 +524,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>7940281</v>
+        <v>9470052</v>
       </c>
       <c r="C2" t="n">
-        <v>3861070</v>
+        <v>4032377</v>
       </c>
       <c r="D2" t="n">
-        <v>4079211</v>
+        <v>5437675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.513736352655529</v>
+        <v>0.574196952667208</v>
       </c>
       <c r="F2" t="n">
         <v>815610</v>
       </c>
       <c r="G2" t="n">
-        <v>0.736815669156114</v>
+        <v>0.719431377443686</v>
       </c>
       <c r="H2" t="n">
-        <v>1106939</v>
+        <v>1133687</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>143317</v>
       </c>
       <c r="J2" t="n">
-        <v>1529761</v>
+        <v>1529776</v>
       </c>
       <c r="K2" t="n">
-        <v>2455835</v>
+        <v>2455837</v>
       </c>
       <c r="L2" t="n">
-        <v>2910752</v>
+        <v>2910783</v>
       </c>
       <c r="M2" t="n">
-        <v>3173625</v>
+        <v>3173651</v>
       </c>
       <c r="N2" t="n">
-        <v>4125871</v>
+        <v>4125874</v>
       </c>
       <c r="O2" t="n">
-        <v>3988236</v>
+        <v>3988275</v>
       </c>
       <c r="P2" t="n">
-        <v>3532974</v>
+        <v>3533029</v>
       </c>
       <c r="Q2" t="n">
-        <v>2907512</v>
+        <v>2907557</v>
       </c>
       <c r="R2" t="n">
-        <v>3062284</v>
+        <v>3062302</v>
       </c>
       <c r="S2" t="n">
-        <v>3125188</v>
+        <v>3125236</v>
       </c>
       <c r="T2" t="n">
-        <v>2590051</v>
+        <v>2590113</v>
       </c>
     </row>
     <row r="3">
@@ -586,49 +586,49 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>1010749</v>
+        <v>1247245</v>
       </c>
       <c r="C3" t="n">
-        <v>458021</v>
+        <v>475524</v>
       </c>
       <c r="D3" t="n">
-        <v>552728</v>
+        <v>771721</v>
       </c>
       <c r="E3" t="n">
-        <v>0.546849910314034</v>
+        <v>0.618740504070972</v>
       </c>
       <c r="F3" t="n">
         <v>94944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.750830354600955</v>
+        <v>0.738904064812869</v>
       </c>
       <c r="H3" t="n">
-        <v>126452</v>
+        <v>128493</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15201</v>
       </c>
       <c r="J3" t="n">
-        <v>236479</v>
+        <v>236491</v>
       </c>
       <c r="K3" t="n">
-        <v>333260</v>
+        <v>333259</v>
       </c>
       <c r="L3" t="n">
-        <v>365038</v>
+        <v>365041</v>
       </c>
       <c r="M3" t="n">
         <v>366307</v>
       </c>
       <c r="N3" t="n">
-        <v>565185</v>
+        <v>565187</v>
       </c>
       <c r="O3" t="n">
         <v>519134</v>
       </c>
       <c r="P3" t="n">
-        <v>463230</v>
+        <v>463234</v>
       </c>
       <c r="Q3" t="n">
         <v>408272</v>
@@ -637,7 +637,7 @@
         <v>415733</v>
       </c>
       <c r="S3" t="n">
-        <v>476678</v>
+        <v>476679</v>
       </c>
       <c r="T3" t="n">
         <v>399177</v>
@@ -648,31 +648,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>1151577</v>
+        <v>1353025</v>
       </c>
       <c r="C4" t="n">
-        <v>591250</v>
+        <v>622690</v>
       </c>
       <c r="D4" t="n">
-        <v>560327</v>
+        <v>730335</v>
       </c>
       <c r="E4" t="n">
-        <v>0.486573629032188</v>
+        <v>0.539779383233865</v>
       </c>
       <c r="F4" t="n">
         <v>102078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.516706739895219</v>
+        <v>0.514770698645473</v>
       </c>
       <c r="H4" t="n">
-        <v>197555</v>
+        <v>198298</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>30692</v>
       </c>
       <c r="J4" t="n">
-        <v>201453</v>
+        <v>201452</v>
       </c>
       <c r="K4" t="n">
         <v>437492</v>
@@ -693,7 +693,7 @@
         <v>599574</v>
       </c>
       <c r="Q4" t="n">
-        <v>383428</v>
+        <v>383427</v>
       </c>
       <c r="R4" t="n">
         <v>414594</v>
@@ -710,28 +710,28 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>408837</v>
+        <v>470157</v>
       </c>
       <c r="C5" t="n">
-        <v>259156</v>
+        <v>276058</v>
       </c>
       <c r="D5" t="n">
-        <v>149681</v>
+        <v>194099</v>
       </c>
       <c r="E5" t="n">
-        <v>0.366114123721679</v>
+        <v>0.412838690054599</v>
       </c>
       <c r="F5" t="n">
         <v>36880</v>
       </c>
       <c r="G5" t="n">
-        <v>0.658207063946744</v>
+        <v>0.58462660304678</v>
       </c>
       <c r="H5" t="n">
-        <v>56031</v>
+        <v>63083</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9851</v>
       </c>
       <c r="J5" t="n">
         <v>61321</v>
@@ -772,28 +772,28 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>254284</v>
+        <v>315149</v>
       </c>
       <c r="C6" t="n">
-        <v>86479</v>
+        <v>91471</v>
       </c>
       <c r="D6" t="n">
-        <v>167805</v>
+        <v>223678</v>
       </c>
       <c r="E6" t="n">
-        <v>0.65991175221406</v>
+        <v>0.709753164376216</v>
       </c>
       <c r="F6" t="n">
         <v>26376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895467662536072</v>
+        <v>0.877328366152209</v>
       </c>
       <c r="H6" t="n">
-        <v>29455</v>
+        <v>30064</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4377</v>
       </c>
       <c r="J6" t="n">
         <v>60865</v>
@@ -834,46 +834,46 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>83849</v>
+        <v>100695</v>
       </c>
       <c r="C7" t="n">
-        <v>46254</v>
+        <v>48521</v>
       </c>
       <c r="D7" t="n">
-        <v>37595</v>
+        <v>52174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.448365514198142</v>
+        <v>0.518138934405879</v>
       </c>
       <c r="F7" t="n">
         <v>6459</v>
       </c>
       <c r="G7" t="n">
-        <v>0.523250162022035</v>
+        <v>0.523207776427704</v>
       </c>
       <c r="H7" t="n">
-        <v>12344</v>
+        <v>12345</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2265</v>
       </c>
       <c r="J7" t="n">
-        <v>16838</v>
+        <v>16842</v>
       </c>
       <c r="K7" t="n">
-        <v>24757</v>
+        <v>24760</v>
       </c>
       <c r="L7" t="n">
-        <v>21938</v>
+        <v>21942</v>
       </c>
       <c r="M7" t="n">
-        <v>21311</v>
+        <v>21316</v>
       </c>
       <c r="N7" t="n">
         <v>26364</v>
       </c>
       <c r="O7" t="n">
-        <v>23609</v>
+        <v>23610</v>
       </c>
       <c r="P7" t="n">
         <v>24723</v>
@@ -882,13 +882,13 @@
         <v>26036</v>
       </c>
       <c r="R7" t="n">
-        <v>38397</v>
+        <v>38396</v>
       </c>
       <c r="S7" t="n">
-        <v>46951</v>
+        <v>46952</v>
       </c>
       <c r="T7" t="n">
-        <v>35817</v>
+        <v>35819</v>
       </c>
     </row>
     <row r="8">
@@ -896,28 +896,28 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>162270</v>
+        <v>190164</v>
       </c>
       <c r="C8" t="n">
-        <v>85381</v>
+        <v>89683</v>
       </c>
       <c r="D8" t="n">
-        <v>76889</v>
+        <v>100481</v>
       </c>
       <c r="E8" t="n">
-        <v>0.47383373390029</v>
+        <v>0.528391283313351</v>
       </c>
       <c r="F8" t="n">
         <v>17597</v>
       </c>
       <c r="G8" t="n">
-        <v>0.745382921043714</v>
+        <v>0.718450169436165</v>
       </c>
       <c r="H8" t="n">
-        <v>23608</v>
+        <v>24493</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3392</v>
       </c>
       <c r="J8" t="n">
         <v>27894</v>
@@ -958,28 +958,28 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>540092</v>
+        <v>639707</v>
       </c>
       <c r="C9" t="n">
-        <v>273329</v>
+        <v>283843</v>
       </c>
       <c r="D9" t="n">
-        <v>266763</v>
+        <v>355864</v>
       </c>
       <c r="E9" t="n">
-        <v>0.493921405982684</v>
+        <v>0.556292177512517</v>
       </c>
       <c r="F9" t="n">
         <v>56431</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7611205524534</v>
+        <v>0.752543774254204</v>
       </c>
       <c r="H9" t="n">
-        <v>74142</v>
+        <v>74987</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9659</v>
       </c>
       <c r="J9" t="n">
         <v>99615</v>
@@ -1012,7 +1012,7 @@
         <v>267619</v>
       </c>
       <c r="T9" t="n">
-        <v>199905</v>
+        <v>199964</v>
       </c>
     </row>
     <row r="10">
@@ -1020,28 +1020,28 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>139649</v>
+        <v>169140</v>
       </c>
       <c r="C10" t="n">
-        <v>64183</v>
+        <v>67843</v>
       </c>
       <c r="D10" t="n">
-        <v>75466</v>
+        <v>101297</v>
       </c>
       <c r="E10" t="n">
-        <v>0.540397711405023</v>
+        <v>0.598894407000118</v>
       </c>
       <c r="F10" t="n">
         <v>14266</v>
       </c>
       <c r="G10" t="n">
-        <v>0.682420473570916</v>
+        <v>0.679236299576251</v>
       </c>
       <c r="H10" t="n">
-        <v>20905</v>
+        <v>21003</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3562</v>
       </c>
       <c r="J10" t="n">
         <v>29491</v>
@@ -1050,7 +1050,7 @@
         <v>47030</v>
       </c>
       <c r="L10" t="n">
-        <v>65640</v>
+        <v>65639</v>
       </c>
       <c r="M10" t="n">
         <v>79391</v>
@@ -1082,31 +1082,31 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>657976</v>
+        <v>779365</v>
       </c>
       <c r="C11" t="n">
-        <v>355966</v>
+        <v>372805</v>
       </c>
       <c r="D11" t="n">
-        <v>302010</v>
+        <v>406560</v>
       </c>
       <c r="E11" t="n">
-        <v>0.458998504504724</v>
+        <v>0.521655450270412</v>
       </c>
       <c r="F11" t="n">
         <v>88471</v>
       </c>
       <c r="G11" t="n">
-        <v>0.780263877374632</v>
+        <v>0.759681601950918</v>
       </c>
       <c r="H11" t="n">
-        <v>113386</v>
+        <v>116458</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13742</v>
       </c>
       <c r="J11" t="n">
-        <v>121393</v>
+        <v>121389</v>
       </c>
       <c r="K11" t="n">
         <v>232198</v>
@@ -1130,7 +1130,7 @@
         <v>204217</v>
       </c>
       <c r="R11" t="n">
-        <v>272261</v>
+        <v>272260</v>
       </c>
       <c r="S11" t="n">
         <v>370332</v>
@@ -1144,31 +1144,31 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>840527</v>
+        <v>991451</v>
       </c>
       <c r="C12" t="n">
-        <v>452000</v>
+        <v>465442</v>
       </c>
       <c r="D12" t="n">
-        <v>388527</v>
+        <v>526009</v>
       </c>
       <c r="E12" t="n">
-        <v>0.462242140942528</v>
+        <v>0.53054462600774</v>
       </c>
       <c r="F12" t="n">
         <v>92340</v>
       </c>
       <c r="G12" t="n">
-        <v>0.876581767782725</v>
+        <v>0.828116872634656</v>
       </c>
       <c r="H12" t="n">
-        <v>105341</v>
+        <v>111506</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6872</v>
       </c>
       <c r="J12" t="n">
-        <v>150927</v>
+        <v>150931</v>
       </c>
       <c r="K12" t="n">
         <v>246133</v>
@@ -1206,28 +1206,28 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>469550</v>
+        <v>547477</v>
       </c>
       <c r="C13" t="n">
-        <v>190595</v>
+        <v>198881</v>
       </c>
       <c r="D13" t="n">
-        <v>278955</v>
+        <v>348596</v>
       </c>
       <c r="E13" t="n">
-        <v>0.594090086252795</v>
+        <v>0.63673177138035</v>
       </c>
       <c r="F13" t="n">
         <v>46824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.928789621930416</v>
+        <v>0.89826769236672</v>
       </c>
       <c r="H13" t="n">
-        <v>50414</v>
+        <v>52127</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6324</v>
       </c>
       <c r="J13" t="n">
         <v>77927</v>
@@ -1239,10 +1239,10 @@
         <v>151515</v>
       </c>
       <c r="M13" t="n">
-        <v>131734</v>
+        <v>131735</v>
       </c>
       <c r="N13" t="n">
-        <v>162835</v>
+        <v>162836</v>
       </c>
       <c r="O13" t="n">
         <v>164222</v>
@@ -1257,7 +1257,7 @@
         <v>167271</v>
       </c>
       <c r="S13" t="n">
-        <v>195282</v>
+        <v>195328</v>
       </c>
       <c r="T13" t="n">
         <v>134440</v>
@@ -1268,28 +1268,28 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>95860</v>
+        <v>115120</v>
       </c>
       <c r="C14" t="n">
-        <v>49806</v>
+        <v>52387</v>
       </c>
       <c r="D14" t="n">
-        <v>46054</v>
+        <v>62733</v>
       </c>
       <c r="E14" t="n">
-        <v>0.480429793448779</v>
+        <v>0.544935719249479</v>
       </c>
       <c r="F14" t="n">
         <v>11124</v>
       </c>
       <c r="G14" t="n">
-        <v>0.634714138993495</v>
+        <v>0.62305365744371</v>
       </c>
       <c r="H14" t="n">
-        <v>17526</v>
+        <v>17854</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2253</v>
       </c>
       <c r="J14" t="n">
         <v>19260</v>
@@ -1298,10 +1298,10 @@
         <v>44504</v>
       </c>
       <c r="L14" t="n">
-        <v>43951</v>
+        <v>43976</v>
       </c>
       <c r="M14" t="n">
-        <v>45474</v>
+        <v>45494</v>
       </c>
       <c r="N14" t="n">
         <v>58175</v>
@@ -1330,31 +1330,31 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>524139</v>
+        <v>611594</v>
       </c>
       <c r="C15" t="n">
-        <v>140196</v>
+        <v>147911</v>
       </c>
       <c r="D15" t="n">
-        <v>383943</v>
+        <v>463683</v>
       </c>
       <c r="E15" t="n">
-        <v>0.732521334989383</v>
+        <v>0.758154919767035</v>
       </c>
       <c r="F15" t="n">
         <v>38977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.717729164364895</v>
+        <v>0.717174505041584</v>
       </c>
       <c r="H15" t="n">
-        <v>54306</v>
+        <v>54348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7571</v>
       </c>
       <c r="J15" t="n">
-        <v>87456</v>
+        <v>87455</v>
       </c>
       <c r="K15" t="n">
         <v>118729</v>
@@ -1392,28 +1392,28 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>199959</v>
+        <v>245212</v>
       </c>
       <c r="C16" t="n">
-        <v>85675</v>
+        <v>89758</v>
       </c>
       <c r="D16" t="n">
-        <v>114284</v>
+        <v>155454</v>
       </c>
       <c r="E16" t="n">
-        <v>0.571537165118849</v>
+        <v>0.633957555095183</v>
       </c>
       <c r="F16" t="n">
         <v>20734</v>
       </c>
       <c r="G16" t="n">
-        <v>0.794193128279772</v>
+        <v>0.773945502053005</v>
       </c>
       <c r="H16" t="n">
-        <v>26107</v>
+        <v>26790</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="J16" t="n">
         <v>45253</v>
@@ -1454,28 +1454,28 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>324030</v>
+        <v>395614</v>
       </c>
       <c r="C17" t="n">
-        <v>177614</v>
+        <v>181294</v>
       </c>
       <c r="D17" t="n">
-        <v>146416</v>
+        <v>214320</v>
       </c>
       <c r="E17" t="n">
-        <v>0.451859395734963</v>
+        <v>0.541740181085604</v>
       </c>
       <c r="F17" t="n">
         <v>38482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.939937959502699</v>
+        <v>0.939158023184869</v>
       </c>
       <c r="H17" t="n">
-        <v>40941</v>
+        <v>40975</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3540</v>
       </c>
       <c r="J17" t="n">
         <v>71586</v>
@@ -1516,31 +1516,31 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>290384</v>
+        <v>323170</v>
       </c>
       <c r="C18" t="n">
-        <v>122855</v>
+        <v>125484</v>
       </c>
       <c r="D18" t="n">
-        <v>167529</v>
+        <v>197686</v>
       </c>
       <c r="E18" t="n">
-        <v>0.576922282219406</v>
+        <v>0.611709007643036</v>
       </c>
       <c r="F18" t="n">
         <v>14952</v>
       </c>
       <c r="G18" t="n">
-        <v>0.349950849599775</v>
+        <v>0.349811665067964</v>
       </c>
       <c r="H18" t="n">
-        <v>42726</v>
+        <v>42743</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2612</v>
       </c>
       <c r="J18" t="n">
-        <v>32785</v>
+        <v>32786</v>
       </c>
       <c r="K18" t="n">
         <v>45448</v>
@@ -1578,28 +1578,28 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>776444</v>
+        <v>958546</v>
       </c>
       <c r="C19" t="n">
-        <v>416456</v>
+        <v>436613</v>
       </c>
       <c r="D19" t="n">
-        <v>359988</v>
+        <v>521933</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4636367851384</v>
+        <v>0.544504906389469</v>
       </c>
       <c r="F19" t="n">
         <v>107248</v>
       </c>
       <c r="G19" t="n">
-        <v>0.940087480167948</v>
+        <v>0.921635858963452</v>
       </c>
       <c r="H19" t="n">
-        <v>114083</v>
+        <v>116367</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>17826</v>
       </c>
       <c r="J19" t="n">
         <v>182102</v>
@@ -1617,22 +1617,22 @@
         <v>474545</v>
       </c>
       <c r="O19" t="n">
-        <v>455897</v>
+        <v>455935</v>
       </c>
       <c r="P19" t="n">
-        <v>404155</v>
+        <v>404206</v>
       </c>
       <c r="Q19" t="n">
-        <v>314888</v>
+        <v>314934</v>
       </c>
       <c r="R19" t="n">
-        <v>272198</v>
+        <v>272218</v>
       </c>
       <c r="S19" t="n">
         <v>260648</v>
       </c>
       <c r="T19" t="n">
-        <v>220815</v>
+        <v>220816</v>
       </c>
     </row>
   </sheetData>
